--- a/reports/monthly_report_202409.xlsx
+++ b/reports/monthly_report_202409.xlsx
@@ -734,21 +734,6 @@
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
-  <spPr>
-    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </spPr>
 </chartSpace>
 </file>
 
@@ -1172,21 +1157,6 @@
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
-  <spPr>
-    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </spPr>
 </chartSpace>
 </file>
 
@@ -1600,21 +1570,6 @@
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
-  <spPr>
-    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </spPr>
 </chartSpace>
 </file>
 
@@ -2028,21 +1983,6 @@
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
-  <spPr>
-    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </spPr>
 </chartSpace>
 </file>
 
@@ -2537,7 +2477,7 @@
       </c>
       <c r="C4" s="38" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="E4" s="15" t="n"/>
@@ -2608,7 +2548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:E10"/>
@@ -2667,1526 +2607,75 @@
     <row r="3" ht="13" customHeight="1" s="26" thickTop="1">
       <c r="A3" s="37" t="inlineStr">
         <is>
-          <t>Phenomenology and Practice</t>
+          <t>The Journal of Hebrew Scriptures</t>
         </is>
       </c>
       <c r="B3" s="37" t="n">
-        <v>219</v>
+        <v>1145</v>
       </c>
       <c r="C3" s="37" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="37" t="n">
-        <v>3721</v>
+        <v>12466</v>
       </c>
       <c r="E3" s="37" t="n">
-        <v>3996</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="37" t="inlineStr">
-        <is>
-          <t>Alternative Francophone</t>
-        </is>
-      </c>
-      <c r="B4" s="37" t="n">
-        <v>221</v>
-      </c>
-      <c r="C4" s="37" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" s="37" t="n">
-        <v>2260</v>
-      </c>
-      <c r="E4" s="37" t="n">
-        <v>1584</v>
-      </c>
+      <c r="A4" s="37" t="n"/>
+      <c r="B4" s="37" t="n"/>
+      <c r="C4" s="37" t="n"/>
+      <c r="D4" s="37" t="n"/>
+      <c r="E4" s="37" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="37" t="inlineStr">
-        <is>
-          <t>Annals of Social Studies Education Research for Teachers</t>
-        </is>
-      </c>
-      <c r="B5" s="37" t="n">
-        <v>60</v>
-      </c>
-      <c r="C5" s="37" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" s="37" t="n">
-        <v>648</v>
-      </c>
-      <c r="E5" s="37" t="n">
-        <v>1421</v>
-      </c>
+      <c r="A5" s="37" t="n"/>
+      <c r="B5" s="37" t="n"/>
+      <c r="C5" s="37" t="n"/>
+      <c r="D5" s="37" t="n"/>
+      <c r="E5" s="37" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="37" t="inlineStr">
-        <is>
-          <t>Blue Jay</t>
-        </is>
-      </c>
-      <c r="B6" s="37" t="n">
-        <v>5767</v>
-      </c>
-      <c r="C6" s="37" t="n">
-        <v>321</v>
-      </c>
-      <c r="D6" s="37" t="n">
-        <v>20208</v>
-      </c>
-      <c r="E6" s="37" t="n">
-        <v>5322</v>
-      </c>
+      <c r="A6" s="37" t="n"/>
+      <c r="B6" s="37" t="n"/>
+      <c r="C6" s="37" t="n"/>
+      <c r="D6" s="37" t="n"/>
+      <c r="E6" s="37" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="37" t="inlineStr">
-        <is>
-          <t>Canadian Journal Of Emergency Nursing</t>
-        </is>
-      </c>
-      <c r="B7" s="37" t="n">
-        <v>364</v>
-      </c>
-      <c r="C7" s="37" t="n">
-        <v>54</v>
-      </c>
-      <c r="D7" s="37" t="n">
-        <v>2790</v>
-      </c>
-      <c r="E7" s="37" t="n">
-        <v>3008</v>
-      </c>
+      <c r="A7" s="37" t="n"/>
+      <c r="B7" s="37" t="n"/>
+      <c r="C7" s="37" t="n"/>
+      <c r="D7" s="37" t="n"/>
+      <c r="E7" s="37" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="37" t="inlineStr">
-        <is>
-          <t>Canadian Journal of Family and Youth</t>
-        </is>
-      </c>
-      <c r="B8" s="37" t="n">
-        <v>629</v>
-      </c>
-      <c r="C8" s="37" t="n">
-        <v>28</v>
-      </c>
-      <c r="D8" s="37" t="n">
-        <v>8167</v>
-      </c>
-      <c r="E8" s="37" t="n">
-        <v>9127</v>
-      </c>
+      <c r="A8" s="37" t="n"/>
+      <c r="B8" s="37" t="n"/>
+      <c r="C8" s="37" t="n"/>
+      <c r="D8" s="37" t="n"/>
+      <c r="E8" s="37" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="37" t="inlineStr">
-        <is>
-          <t>Canadian Journal of Learning and Technology</t>
-        </is>
-      </c>
-      <c r="B9" s="37" t="n">
-        <v>1049</v>
-      </c>
-      <c r="C9" s="37" t="n">
-        <v>169</v>
-      </c>
-      <c r="D9" s="37" t="n">
-        <v>14084</v>
-      </c>
-      <c r="E9" s="37" t="n">
-        <v>11988</v>
-      </c>
+      <c r="A9" s="37" t="n"/>
+      <c r="B9" s="37" t="n"/>
+      <c r="C9" s="37" t="n"/>
+      <c r="D9" s="37" t="n"/>
+      <c r="E9" s="37" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="37" t="inlineStr">
-        <is>
-          <t>Canadian Journal of Nonprofit and Social Economy Research</t>
-        </is>
-      </c>
-      <c r="B10" s="37" t="n">
-        <v>275</v>
-      </c>
-      <c r="C10" s="37" t="n">
-        <v>33</v>
-      </c>
-      <c r="D10" s="37" t="n">
-        <v>4726</v>
-      </c>
-      <c r="E10" s="37" t="n">
-        <v>3645</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Canadian Review of Comparative Literature/Revue Canadienne de Litterature Comparee</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1682</v>
-      </c>
-      <c r="C11" t="n">
-        <v>165</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2730</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3585</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Canadian Social Studies</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>29</v>
-      </c>
-      <c r="C12" t="n">
-        <v>8</v>
-      </c>
-      <c r="D12" t="n">
-        <v>111</v>
-      </c>
-      <c r="E12" t="n">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Critical Gambling Studies</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>106</v>
-      </c>
-      <c r="C13" t="n">
-        <v>9</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1669</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Cultural and Pedagogical Inquiry</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>438</v>
-      </c>
-      <c r="C14" t="n">
-        <v>29</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2539</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2346</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>East/West: Journal of Ukrainian Studies</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>365</v>
-      </c>
-      <c r="C15" t="n">
-        <v>18</v>
-      </c>
-      <c r="D15" t="n">
-        <v>6060</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3742</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Education francophone en milieu minoritaire</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>26</v>
-      </c>
-      <c r="C16" t="n">
-        <v>19</v>
-      </c>
-      <c r="D16" t="n">
-        <v>132</v>
-      </c>
-      <c r="E16" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>eLucidate</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>786</v>
-      </c>
-      <c r="C17" t="n">
-        <v>68</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2694</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2698</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Evidence Based Library and Information Practice</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1503</v>
-      </c>
-      <c r="C18" t="n">
-        <v>76</v>
-      </c>
-      <c r="D18" t="n">
-        <v>24024</v>
-      </c>
-      <c r="E18" t="n">
-        <v>9873</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>History of Science in South Asia</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>64</v>
-      </c>
-      <c r="C19" t="n">
-        <v>13</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1371</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>IASL Annual Conference Proceedings</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>976</v>
-      </c>
-      <c r="C20" t="n">
-        <v>26</v>
-      </c>
-      <c r="D20" t="n">
-        <v>5502</v>
-      </c>
-      <c r="E20" t="n">
-        <v>3464</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Modular and Offsite Construction (MOC) Summit Proceedings</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>227</v>
-      </c>
-      <c r="C21" t="n">
-        <v>6</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2428</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2558</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Proceedings of the Annual Conference of CAIS / Actes du congrès annuel de l'ACSI</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1629</v>
-      </c>
-      <c r="C22" t="n">
-        <v>48</v>
-      </c>
-      <c r="D22" t="n">
-        <v>5606</v>
-      </c>
-      <c r="E22" t="n">
-        <v>4203</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Edmonton Journal of Tectonics</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Technology, Information, and Society</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Writing across the University of Alberta</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>39</v>
-      </c>
-      <c r="C25" t="n">
-        <v>4</v>
-      </c>
-      <c r="D25" t="n">
-        <v>291</v>
-      </c>
-      <c r="E25" t="n">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Journal of the Academy of Forensic Nursing</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Art/Research International: A Transdisciplinary Journal</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>260</v>
-      </c>
-      <c r="C27" t="n">
-        <v>16</v>
-      </c>
-      <c r="D27" t="n">
-        <v>5761</v>
-      </c>
-      <c r="E27" t="n">
-        <v>3606</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Constitutional Forum / Forum constitutionnel</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>517</v>
-      </c>
-      <c r="C28" t="n">
-        <v>58</v>
-      </c>
-      <c r="D28" t="n">
-        <v>2523</v>
-      </c>
-      <c r="E28" t="n">
-        <v>3508</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>IASSIST Quarterly</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>745</v>
-      </c>
-      <c r="C29" t="n">
-        <v>158</v>
-      </c>
-      <c r="D29" t="n">
-        <v>4972</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Imaginations: Journal of Cross-Cultural Image Studies</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>323</v>
-      </c>
-      <c r="C30" t="n">
-        <v>30</v>
-      </c>
-      <c r="D30" t="n">
-        <v>4261</v>
-      </c>
-      <c r="E30" t="n">
-        <v>3606</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>International Journal for Leadership in Learning</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>50</v>
-      </c>
-      <c r="C31" t="n">
-        <v>5</v>
-      </c>
-      <c r="D31" t="n">
-        <v>340</v>
-      </c>
-      <c r="E31" t="n">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>International Journal of Critical Care</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>49</v>
-      </c>
-      <c r="C32" t="n">
-        <v>8</v>
-      </c>
-      <c r="D32" t="n">
-        <v>978</v>
-      </c>
-      <c r="E32" t="n">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>International Journal of Industrialized Construction</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>10</v>
-      </c>
-      <c r="C33" t="n">
-        <v>2</v>
-      </c>
-      <c r="D33" t="n">
-        <v>634</v>
-      </c>
-      <c r="E33" t="n">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>The International Review of Information Ethics</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>395</v>
-      </c>
-      <c r="C34" t="n">
-        <v>34</v>
-      </c>
-      <c r="D34" t="n">
-        <v>5186</v>
-      </c>
-      <c r="E34" t="n">
-        <v>3840</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Issues in Science and Technology Librarianship</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1078</v>
-      </c>
-      <c r="C35" t="n">
-        <v>110</v>
-      </c>
-      <c r="D35" t="n">
-        <v>5964</v>
-      </c>
-      <c r="E35" t="n">
-        <v>3509</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Journal of Contemporary Issues in Education</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>224</v>
-      </c>
-      <c r="C36" t="n">
-        <v>35</v>
-      </c>
-      <c r="D36" t="n">
-        <v>2597</v>
-      </c>
-      <c r="E36" t="n">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>The Journal of Hebrew Scriptures</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1145</v>
-      </c>
-      <c r="C37" t="n">
-        <v>24</v>
-      </c>
-      <c r="D37" t="n">
-        <v>12466</v>
-      </c>
-      <c r="E37" t="n">
-        <v>4868</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Journal of Jungian Scholarly Studies</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>125</v>
-      </c>
-      <c r="C38" t="n">
-        <v>19</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1530</v>
-      </c>
-      <c r="E38" t="n">
-        <v>2344</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Journal of Juvenilia Studies</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>81</v>
-      </c>
-      <c r="C39" t="n">
-        <v>11</v>
-      </c>
-      <c r="D39" t="n">
-        <v>688</v>
-      </c>
-      <c r="E39" t="n">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Journal of Practical Nurse Education and Practice</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>28</v>
-      </c>
-      <c r="C40" t="n">
-        <v>7</v>
-      </c>
-      <c r="D40" t="n">
-        <v>505</v>
-      </c>
-      <c r="E40" t="n">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Journal of the Canadian Health Libraries Association/Journal de l'Association des bibliothèques de la santé du Canada</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>701</v>
-      </c>
-      <c r="C41" t="n">
-        <v>68</v>
-      </c>
-      <c r="D41" t="n">
-        <v>4517</v>
-      </c>
-      <c r="E41" t="n">
-        <v>3606</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Language and Literacy</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>409</v>
-      </c>
-      <c r="C42" t="n">
-        <v>65</v>
-      </c>
-      <c r="D42" t="n">
-        <v>5603</v>
-      </c>
-      <c r="E42" t="n">
-        <v>3614</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Library and Information Research</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>553</v>
-      </c>
-      <c r="C43" t="n">
-        <v>69</v>
-      </c>
-      <c r="D43" t="n">
-        <v>4285</v>
-      </c>
-      <c r="E43" t="n">
-        <v>3787</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Manitoba Law Journal</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>601</v>
-      </c>
-      <c r="C44" t="n">
-        <v>52</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1703</v>
-      </c>
-      <c r="E44" t="n">
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Scandinavian-Canadian Studies</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>250</v>
-      </c>
-      <c r="C45" t="n">
-        <v>31</v>
-      </c>
-      <c r="D45" t="n">
-        <v>2878</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Socialist Studies/Études Socialistes</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>395</v>
-      </c>
-      <c r="C46" t="n">
-        <v>27</v>
-      </c>
-      <c r="D46" t="n">
-        <v>4056</v>
-      </c>
-      <c r="E46" t="n">
-        <v>4105</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>TranscUlturAl: A Journal of Translation and Cultural Studies</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>272</v>
-      </c>
-      <c r="C47" t="n">
-        <v>19</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1820</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Vertebrate Anatomy Morphology Palaeontology</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>60</v>
-      </c>
-      <c r="C48" t="n">
-        <v>11</v>
-      </c>
-      <c r="D48" t="n">
-        <v>960</v>
-      </c>
-      <c r="E48" t="n">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>The Wrongful Conviction Law Review</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>75</v>
-      </c>
-      <c r="C49" t="n">
-        <v>13</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1318</v>
-      </c>
-      <c r="E49" t="n">
-        <v>1961</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>International Kimberlite Conference: Extended Abstracts</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>2619</v>
-      </c>
-      <c r="C50" t="n">
-        <v>12</v>
-      </c>
-      <c r="D50" t="n">
-        <v>6975</v>
-      </c>
-      <c r="E50" t="n">
-        <v>8881</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Journal of Aboriginal Economic Development</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>397</v>
-      </c>
-      <c r="C51" t="n">
-        <v>26</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1224</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Religious and Socio-Political Studies Journal</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>7</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2</v>
-      </c>
-      <c r="D52" t="n">
-        <v>69</v>
-      </c>
-      <c r="E52" t="n">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>School Libraries Worldwide</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>414</v>
-      </c>
-      <c r="C53" t="n">
-        <v>56</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1959</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1912</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Alberta Academic Review</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>90</v>
-      </c>
-      <c r="C54" t="n">
-        <v>9</v>
-      </c>
-      <c r="D54" t="n">
-        <v>724</v>
-      </c>
-      <c r="E54" t="n">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Alberta Law Review</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>2441</v>
-      </c>
-      <c r="C55" t="n">
-        <v>218</v>
-      </c>
-      <c r="D55" t="n">
-        <v>18497</v>
-      </c>
-      <c r="E55" t="n">
-        <v>21050</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>COMPASS</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>58</v>
-      </c>
-      <c r="C56" t="n">
-        <v>8</v>
-      </c>
-      <c r="D56" t="n">
-        <v>553</v>
-      </c>
-      <c r="E56" t="n">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Connections: A Journal of Language, Media and Culture</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>23</v>
-      </c>
-      <c r="C57" t="n">
-        <v>2</v>
-      </c>
-      <c r="D57" t="n">
-        <v>421</v>
-      </c>
-      <c r="E57" t="n">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Constellations</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>230</v>
-      </c>
-      <c r="C58" t="n">
-        <v>27</v>
-      </c>
-      <c r="D58" t="n">
-        <v>2136</v>
-      </c>
-      <c r="E58" t="n">
-        <v>3831</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Crossings: An Undergraduate Arts Journal</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>86</v>
-      </c>
-      <c r="C59" t="n">
-        <v>5</v>
-      </c>
-      <c r="D59" t="n">
-        <v>643</v>
-      </c>
-      <c r="E59" t="n">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Eureka</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>102</v>
-      </c>
-      <c r="C60" t="n">
-        <v>10</v>
-      </c>
-      <c r="D60" t="n">
-        <v>820</v>
-      </c>
-      <c r="E60" t="n">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Health Science Inquiry</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>319</v>
-      </c>
-      <c r="C61" t="n">
-        <v>13</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2601</v>
-      </c>
-      <c r="E61" t="n">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Intonations</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>16</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5</v>
-      </c>
-      <c r="D62" t="n">
-        <v>170</v>
-      </c>
-      <c r="E62" t="n">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>INVOKE</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>36</v>
-      </c>
-      <c r="C63" t="n">
-        <v>8</v>
-      </c>
-      <c r="D63" t="n">
-        <v>554</v>
-      </c>
-      <c r="E63" t="n">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Movement Matters</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>14</v>
-      </c>
-      <c r="C64" t="n">
-        <v>3</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Past Imperfect</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>269</v>
-      </c>
-      <c r="C65" t="n">
-        <v>26</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1891</v>
-      </c>
-      <c r="E65" t="n">
-        <v>2542</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Pathfinder: A Canadian Journal for Information Science Students and Early Career Professionals</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>60</v>
-      </c>
-      <c r="C66" t="n">
-        <v>6</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1343</v>
-      </c>
-      <c r="E66" t="n">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Pathways</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>36</v>
-      </c>
-      <c r="C67" t="n">
-        <v>4</v>
-      </c>
-      <c r="D67" t="n">
-        <v>597</v>
-      </c>
-      <c r="E67" t="n">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Political Science Undergraduate Review</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>143</v>
-      </c>
-      <c r="C68" t="n">
-        <v>12</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1034</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Spectrum</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>82</v>
-      </c>
-      <c r="C69" t="n">
-        <v>13</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2133</v>
-      </c>
-      <c r="E69" t="n">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Topophilia</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>30</v>
-      </c>
-      <c r="C70" t="n">
-        <v>3</v>
-      </c>
-      <c r="D70" t="n">
-        <v>335</v>
-      </c>
-      <c r="E70" t="n">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Ancient lanka</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Behavioural Sciences Undergraduate Journal</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Convergences francophones</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Experiences in Spanish-English Translation/Experiencias de traducción español-inglés</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Imagining SoTL</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Mount Royal Undergraduate Humanities Review (MRUHR)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>69</v>
-      </c>
-      <c r="C76" t="n">
-        <v>7</v>
-      </c>
-      <c r="D76" t="n">
-        <v>419</v>
-      </c>
-      <c r="E76" t="n">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Economics Student Inquiry</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>2</v>
-      </c>
-      <c r="C77" t="n">
-        <v>1</v>
-      </c>
-      <c r="D77" t="n">
-        <v>137</v>
-      </c>
-      <c r="E77" t="n">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Histos</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>618</v>
-      </c>
-      <c r="C78" t="n">
-        <v>33</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Scientia Canadensis</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>5</v>
-      </c>
-      <c r="C79" t="n">
-        <v>1</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
+      <c r="A10" s="37" t="n"/>
+      <c r="B10" s="37" t="n"/>
+      <c r="C10" s="37" t="n"/>
+      <c r="D10" s="37" t="n"/>
+      <c r="E10" s="37" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
